--- a/dataset/ML Engineer Jobs Cleaned.xlsx
+++ b/dataset/ML Engineer Jobs Cleaned.xlsx
@@ -460,12 +460,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>length of work experience required (years)_MIN</t>
+          <t>Work Experience (MIN)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>length of work experience required (years)_MAX</t>
+          <t>Work Experience (MAX)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2715,11 +2715,7 @@
       <c r="H40" s="2" t="n">
         <v>45811</v>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -2774,11 +2770,7 @@
       <c r="H41" s="2" t="n">
         <v>45721</v>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -2837,11 +2829,7 @@
       <c r="H42" s="2" t="n">
         <v>45841</v>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -2896,11 +2884,7 @@
       <c r="H43" s="2" t="n">
         <v>45866</v>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -2955,11 +2939,7 @@
       <c r="H44" s="2" t="n">
         <v>45811</v>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
           <t>Contract</t>
@@ -3012,11 +2992,7 @@
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
           <t>Not Specified</t>
@@ -3067,11 +3043,7 @@
         <v>45901</v>
       </c>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -3132,11 +3104,7 @@
       <c r="H47" s="2" t="n">
         <v>45871</v>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -3197,11 +3165,7 @@
       <c r="H48" s="2" t="n">
         <v>45871</v>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -3260,11 +3224,7 @@
         <v>45901</v>
       </c>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -3325,11 +3285,7 @@
       <c r="H50" s="2" t="n">
         <v>45871</v>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -3391,11 +3347,7 @@
       <c r="H51" s="2" t="n">
         <v>45537</v>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -3457,11 +3409,7 @@
       <c r="H52" s="2" t="n">
         <v>45883</v>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
           <t>Freelance</t>
@@ -3518,11 +3466,7 @@
       <c r="H53" s="2" t="n">
         <v>45887</v>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -3583,11 +3527,7 @@
       <c r="H54" s="2" t="n">
         <v>45892</v>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
           <t>Contract</t>
@@ -3644,11 +3584,7 @@
       <c r="H55" s="2" t="n">
         <v>45873</v>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -3709,11 +3645,7 @@
       <c r="H56" s="2" t="n">
         <v>45895</v>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -3774,11 +3706,7 @@
       <c r="H57" s="2" t="n">
         <v>45892</v>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -3837,11 +3765,7 @@
       <c r="H58" s="2" t="n">
         <v>45894</v>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
           <t>Contract</t>
@@ -3900,11 +3824,7 @@
       <c r="H59" s="2" t="n">
         <v>45891</v>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -3965,11 +3885,7 @@
       <c r="H60" s="2" t="n">
         <v>45873</v>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -4030,11 +3946,7 @@
       <c r="H61" s="2" t="n">
         <v>45663</v>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -4095,11 +4007,7 @@
       <c r="H62" s="2" t="n">
         <v>45876</v>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -4160,11 +4068,7 @@
       <c r="H63" s="2" t="n">
         <v>45876</v>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -4221,11 +4125,7 @@
         <v>45903</v>
       </c>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -4278,11 +4178,7 @@
         <v>45903</v>
       </c>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -4339,11 +4235,7 @@
         <v>45903</v>
       </c>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -4400,11 +4292,7 @@
       <c r="H67" s="2" t="n">
         <v>45881</v>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -4457,11 +4345,7 @@
       <c r="H68" s="2" t="n">
         <v>45842</v>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -4516,11 +4400,7 @@
       <c r="H69" s="2" t="n">
         <v>45872</v>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -4575,11 +4455,7 @@
       <c r="H70" s="2" t="n">
         <v>45874</v>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -4634,11 +4510,7 @@
       <c r="H71" s="2" t="n">
         <v>45895</v>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
           <t>Full Time Contract</t>
@@ -4695,11 +4567,7 @@
       <c r="H72" s="2" t="n">
         <v>45722</v>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
           <t>Part-time</t>
@@ -4754,11 +4622,7 @@
       <c r="H73" s="2" t="n">
         <v>45842</v>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
           <t>Not Specified</t>
@@ -4813,11 +4677,7 @@
       <c r="H74" s="2" t="n">
         <v>45812</v>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -4872,11 +4732,7 @@
       <c r="H75" s="2" t="n">
         <v>45882</v>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -4931,11 +4787,7 @@
       <c r="H76" s="2" t="n">
         <v>45603</v>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -4990,11 +4842,7 @@
       <c r="H77" s="2" t="n">
         <v>45873</v>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -5049,11 +4897,7 @@
       <c r="H78" s="2" t="n">
         <v>45889</v>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -5108,11 +4952,7 @@
       <c r="H79" s="2" t="n">
         <v>45753</v>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -5165,11 +5005,7 @@
       <c r="H80" s="2" t="n">
         <v>45603</v>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -5220,11 +5056,7 @@
         <v>45903</v>
       </c>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -5279,11 +5111,7 @@
       <c r="H82" s="2" t="n">
         <v>45603</v>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
           <t>Not Specified</t>
@@ -5336,11 +5164,7 @@
       <c r="H83" s="2" t="n">
         <v>45889</v>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
           <t>Not Specified</t>
@@ -5395,11 +5219,7 @@
       <c r="H84" s="2" t="n">
         <v>45873</v>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -5454,11 +5274,7 @@
       <c r="H85" s="2" t="n">
         <v>45873</v>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
           <t>Full-time</t>
@@ -5511,11 +5327,7 @@
       <c r="H86" s="2" t="n">
         <v>45843</v>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>No information</t>
-        </is>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
           <t>Full-time</t>
